--- a/results/Cluster Purity.xlsx
+++ b/results/Cluster Purity.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruna\OneDrive\Heterogeneity-Tomography\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7064b204c6fa9c53/Heterogeneity-Tomography/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{66A271B0-1287-4297-86A8-363305C5BD46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DD728EA4-29B0-4A32-986D-81021D25FA9A}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{66A271B0-1287-4297-86A8-363305C5BD46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{428165B3-5CB6-43F9-A456-B2DD976DD8F1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{386CE0C6-F5D9-4B1B-88B6-0FFBCBCF3172}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{386CE0C6-F5D9-4B1B-88B6-0FFBCBCF3172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Incorrect Classification</t>
   </si>
@@ -44,6 +46,9 @@
   </si>
   <si>
     <t>Percentage Correct</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2695,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2704,13 +2709,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Percentage</a:t>
+              <a:t>Percentage Increase in Purity</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Increase in Purity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2727,7 +2727,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3706,7 +3706,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3738,7 +3738,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3776,7 +3776,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3826,7 +3826,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3858,7 +3858,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3890,7 +3890,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3941,7 +3941,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1500" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3975,7 +3975,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3989,13 +3989,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Percentage</a:t>
+              <a:t>Percentage Purity</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Purity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4012,7 +4007,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4991,7 +4986,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5023,7 +5018,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5061,7 +5056,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5111,7 +5106,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5143,7 +5138,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5175,7 +5170,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5226,7 +5221,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1500" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7544,16 +7539,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7580,16 +7575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7917,7 +7912,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11541,7 +11536,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15164,8 +15159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D1917-53D2-4E3B-91FA-7946C3E402FF}">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17642,4 +17637,5530 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C8D3CD-23C9-4EDD-8362-30533470D8FB}">
+  <dimension ref="A1:J300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>118</v>
+      </c>
+      <c r="H3">
+        <f>G3-I3</f>
+        <v>94</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <f>(H3/G3)*100</f>
+        <v>79.66101694915254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <f>G4-I4</f>
+        <v>65</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">(H4/G4)*100</f>
+        <v>72.222222222222214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>90/300</f>
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>92</v>
+      </c>
+      <c r="H5">
+        <f>G5-I5</f>
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>55.434782608695656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G3:G5)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>3</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>3</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>3</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF7D4-1715-4142-908C-B2D13ED2A6CE}">
+  <dimension ref="A1:KN6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="B1">
+        <v>33.480354196828401</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>100</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+      <c r="M1">
+        <v>100</v>
+      </c>
+      <c r="N1">
+        <v>100</v>
+      </c>
+      <c r="O1">
+        <v>100</v>
+      </c>
+      <c r="P1">
+        <v>100</v>
+      </c>
+      <c r="Q1">
+        <v>100</v>
+      </c>
+      <c r="R1">
+        <v>100</v>
+      </c>
+      <c r="S1">
+        <v>100</v>
+      </c>
+      <c r="T1">
+        <v>100</v>
+      </c>
+      <c r="U1">
+        <v>100</v>
+      </c>
+      <c r="V1">
+        <v>100</v>
+      </c>
+      <c r="W1">
+        <v>100</v>
+      </c>
+      <c r="X1">
+        <v>100</v>
+      </c>
+      <c r="Y1">
+        <v>100</v>
+      </c>
+      <c r="Z1">
+        <v>100</v>
+      </c>
+      <c r="AA1">
+        <v>100</v>
+      </c>
+      <c r="AB1">
+        <v>100</v>
+      </c>
+      <c r="AC1">
+        <v>100</v>
+      </c>
+      <c r="AD1">
+        <v>100</v>
+      </c>
+      <c r="AE1">
+        <v>100</v>
+      </c>
+      <c r="AF1">
+        <v>100</v>
+      </c>
+      <c r="AG1">
+        <v>100</v>
+      </c>
+      <c r="AH1">
+        <v>100</v>
+      </c>
+      <c r="AI1">
+        <v>100</v>
+      </c>
+      <c r="AJ1">
+        <v>100</v>
+      </c>
+      <c r="AK1">
+        <v>100</v>
+      </c>
+      <c r="AL1">
+        <v>100</v>
+      </c>
+      <c r="AM1">
+        <v>100</v>
+      </c>
+      <c r="AN1">
+        <v>100</v>
+      </c>
+      <c r="AO1">
+        <v>100</v>
+      </c>
+      <c r="AP1">
+        <v>100</v>
+      </c>
+      <c r="AQ1">
+        <v>100</v>
+      </c>
+      <c r="AR1">
+        <v>100</v>
+      </c>
+      <c r="AS1">
+        <v>100</v>
+      </c>
+      <c r="AT1">
+        <v>100</v>
+      </c>
+      <c r="AU1">
+        <v>100</v>
+      </c>
+      <c r="AV1">
+        <v>100</v>
+      </c>
+      <c r="AW1">
+        <v>100</v>
+      </c>
+      <c r="AX1">
+        <v>100</v>
+      </c>
+      <c r="AY1">
+        <v>100</v>
+      </c>
+      <c r="AZ1">
+        <v>100</v>
+      </c>
+      <c r="BA1">
+        <v>100</v>
+      </c>
+      <c r="BB1">
+        <v>100</v>
+      </c>
+      <c r="BC1">
+        <v>100</v>
+      </c>
+      <c r="BD1">
+        <v>100</v>
+      </c>
+      <c r="BE1">
+        <v>100</v>
+      </c>
+      <c r="BF1">
+        <v>100</v>
+      </c>
+      <c r="BG1">
+        <v>100</v>
+      </c>
+      <c r="BH1">
+        <v>100</v>
+      </c>
+      <c r="BI1">
+        <v>100</v>
+      </c>
+      <c r="BJ1">
+        <v>100</v>
+      </c>
+      <c r="BK1">
+        <v>100</v>
+      </c>
+      <c r="BL1">
+        <v>100</v>
+      </c>
+      <c r="BM1">
+        <v>100</v>
+      </c>
+      <c r="BN1">
+        <v>100</v>
+      </c>
+      <c r="BO1">
+        <v>100</v>
+      </c>
+      <c r="BP1">
+        <v>100</v>
+      </c>
+      <c r="BQ1">
+        <v>100</v>
+      </c>
+      <c r="BR1">
+        <v>100</v>
+      </c>
+      <c r="BS1">
+        <v>100</v>
+      </c>
+      <c r="BT1">
+        <v>100</v>
+      </c>
+      <c r="BU1">
+        <v>100</v>
+      </c>
+      <c r="BV1">
+        <v>100</v>
+      </c>
+      <c r="BW1">
+        <v>100</v>
+      </c>
+      <c r="BX1">
+        <v>100</v>
+      </c>
+      <c r="BY1">
+        <v>100</v>
+      </c>
+      <c r="BZ1">
+        <v>100</v>
+      </c>
+      <c r="CA1">
+        <v>100</v>
+      </c>
+      <c r="CB1">
+        <v>100</v>
+      </c>
+      <c r="CC1">
+        <v>100</v>
+      </c>
+      <c r="CD1">
+        <v>100</v>
+      </c>
+      <c r="CE1">
+        <v>100</v>
+      </c>
+      <c r="CF1">
+        <v>100</v>
+      </c>
+      <c r="CG1">
+        <v>100</v>
+      </c>
+      <c r="CH1">
+        <v>100</v>
+      </c>
+      <c r="CI1">
+        <v>100</v>
+      </c>
+      <c r="CJ1">
+        <v>100</v>
+      </c>
+      <c r="CK1">
+        <v>100</v>
+      </c>
+      <c r="CL1">
+        <v>100</v>
+      </c>
+      <c r="CM1">
+        <v>100</v>
+      </c>
+      <c r="CN1">
+        <v>100</v>
+      </c>
+      <c r="CO1">
+        <v>100</v>
+      </c>
+      <c r="CP1">
+        <v>100</v>
+      </c>
+      <c r="CQ1">
+        <v>100</v>
+      </c>
+      <c r="CR1">
+        <v>100</v>
+      </c>
+      <c r="CS1">
+        <v>100</v>
+      </c>
+      <c r="CT1">
+        <v>100</v>
+      </c>
+      <c r="CU1">
+        <v>100</v>
+      </c>
+      <c r="CV1">
+        <v>100</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>100</v>
+      </c>
+      <c r="CY1">
+        <v>100</v>
+      </c>
+      <c r="CZ1">
+        <v>100</v>
+      </c>
+      <c r="DA1">
+        <v>100</v>
+      </c>
+      <c r="DB1">
+        <v>100</v>
+      </c>
+      <c r="DC1">
+        <v>100</v>
+      </c>
+      <c r="DD1">
+        <v>100</v>
+      </c>
+      <c r="DE1">
+        <v>100</v>
+      </c>
+      <c r="DF1">
+        <v>100</v>
+      </c>
+      <c r="DG1">
+        <v>100</v>
+      </c>
+      <c r="DH1">
+        <v>100</v>
+      </c>
+      <c r="DI1">
+        <v>100</v>
+      </c>
+      <c r="DJ1">
+        <v>100</v>
+      </c>
+      <c r="DK1">
+        <v>100</v>
+      </c>
+      <c r="DL1">
+        <v>100</v>
+      </c>
+      <c r="DM1">
+        <v>100</v>
+      </c>
+      <c r="DN1">
+        <v>100</v>
+      </c>
+      <c r="DO1">
+        <v>100</v>
+      </c>
+      <c r="DP1">
+        <v>100</v>
+      </c>
+      <c r="DQ1">
+        <v>100</v>
+      </c>
+      <c r="DR1">
+        <v>100</v>
+      </c>
+      <c r="DS1">
+        <v>100</v>
+      </c>
+      <c r="DT1">
+        <v>100</v>
+      </c>
+      <c r="DU1">
+        <v>100</v>
+      </c>
+      <c r="DV1">
+        <v>100</v>
+      </c>
+      <c r="DW1">
+        <v>100</v>
+      </c>
+      <c r="DX1">
+        <v>100</v>
+      </c>
+      <c r="DY1">
+        <v>100</v>
+      </c>
+      <c r="DZ1">
+        <v>100</v>
+      </c>
+      <c r="EA1">
+        <v>100</v>
+      </c>
+      <c r="EB1">
+        <v>100</v>
+      </c>
+      <c r="EC1">
+        <v>100</v>
+      </c>
+      <c r="ED1">
+        <v>100</v>
+      </c>
+      <c r="EE1">
+        <v>100</v>
+      </c>
+      <c r="EF1">
+        <v>100</v>
+      </c>
+      <c r="EG1">
+        <v>100</v>
+      </c>
+      <c r="EH1">
+        <v>100</v>
+      </c>
+      <c r="EI1">
+        <v>100</v>
+      </c>
+      <c r="EJ1">
+        <v>100</v>
+      </c>
+      <c r="EK1">
+        <v>100</v>
+      </c>
+      <c r="EL1">
+        <v>100</v>
+      </c>
+      <c r="EM1">
+        <v>100</v>
+      </c>
+      <c r="EN1">
+        <v>100</v>
+      </c>
+      <c r="EO1">
+        <v>100</v>
+      </c>
+      <c r="EP1">
+        <v>100</v>
+      </c>
+      <c r="EQ1">
+        <v>100</v>
+      </c>
+      <c r="ER1">
+        <v>100</v>
+      </c>
+      <c r="ES1">
+        <v>100</v>
+      </c>
+      <c r="ET1">
+        <v>100</v>
+      </c>
+      <c r="EU1">
+        <v>100</v>
+      </c>
+      <c r="EV1">
+        <v>100</v>
+      </c>
+      <c r="EW1">
+        <v>100</v>
+      </c>
+      <c r="EX1">
+        <v>100</v>
+      </c>
+      <c r="EY1">
+        <v>100</v>
+      </c>
+      <c r="EZ1">
+        <v>100</v>
+      </c>
+      <c r="FA1">
+        <v>100</v>
+      </c>
+      <c r="FB1">
+        <v>100</v>
+      </c>
+      <c r="FC1">
+        <v>100</v>
+      </c>
+      <c r="FD1">
+        <v>100</v>
+      </c>
+      <c r="FE1">
+        <v>100</v>
+      </c>
+      <c r="FF1">
+        <v>100</v>
+      </c>
+      <c r="FG1">
+        <v>100</v>
+      </c>
+      <c r="FH1">
+        <v>100</v>
+      </c>
+      <c r="FI1">
+        <v>100</v>
+      </c>
+      <c r="FJ1">
+        <v>100</v>
+      </c>
+      <c r="FK1">
+        <v>100</v>
+      </c>
+      <c r="FL1">
+        <v>100</v>
+      </c>
+      <c r="FM1">
+        <v>100</v>
+      </c>
+      <c r="FN1">
+        <v>100</v>
+      </c>
+      <c r="FO1">
+        <v>100</v>
+      </c>
+      <c r="FP1">
+        <v>100</v>
+      </c>
+      <c r="FQ1">
+        <v>100</v>
+      </c>
+      <c r="FR1">
+        <v>100</v>
+      </c>
+      <c r="FS1">
+        <v>100</v>
+      </c>
+      <c r="FT1">
+        <v>100</v>
+      </c>
+      <c r="FU1">
+        <v>100</v>
+      </c>
+      <c r="FV1">
+        <v>100</v>
+      </c>
+      <c r="FW1">
+        <v>100</v>
+      </c>
+      <c r="FX1">
+        <v>100</v>
+      </c>
+      <c r="FY1">
+        <v>100</v>
+      </c>
+      <c r="FZ1">
+        <v>100</v>
+      </c>
+      <c r="GA1">
+        <v>100</v>
+      </c>
+      <c r="GB1">
+        <v>100</v>
+      </c>
+      <c r="GC1">
+        <v>100</v>
+      </c>
+      <c r="GD1">
+        <v>100</v>
+      </c>
+      <c r="GE1">
+        <v>100</v>
+      </c>
+      <c r="GF1">
+        <v>100</v>
+      </c>
+      <c r="GG1">
+        <v>100</v>
+      </c>
+      <c r="GH1">
+        <v>100</v>
+      </c>
+      <c r="GI1">
+        <v>100</v>
+      </c>
+      <c r="GJ1">
+        <v>100</v>
+      </c>
+      <c r="GK1">
+        <v>100</v>
+      </c>
+      <c r="GL1">
+        <v>100</v>
+      </c>
+      <c r="GM1">
+        <v>100</v>
+      </c>
+      <c r="GN1">
+        <v>100</v>
+      </c>
+      <c r="GO1">
+        <v>100</v>
+      </c>
+      <c r="GP1">
+        <v>100</v>
+      </c>
+      <c r="GQ1">
+        <v>100</v>
+      </c>
+      <c r="GR1">
+        <v>100</v>
+      </c>
+      <c r="GS1">
+        <v>100</v>
+      </c>
+      <c r="GT1">
+        <v>100</v>
+      </c>
+      <c r="GU1">
+        <v>100</v>
+      </c>
+      <c r="GV1">
+        <v>100</v>
+      </c>
+      <c r="GW1">
+        <v>100</v>
+      </c>
+      <c r="GX1">
+        <v>100</v>
+      </c>
+      <c r="GY1">
+        <v>100</v>
+      </c>
+      <c r="GZ1">
+        <v>100</v>
+      </c>
+      <c r="HA1">
+        <v>100</v>
+      </c>
+      <c r="HB1">
+        <v>100</v>
+      </c>
+      <c r="HC1">
+        <v>100</v>
+      </c>
+      <c r="HD1">
+        <v>100</v>
+      </c>
+      <c r="HE1">
+        <v>100</v>
+      </c>
+      <c r="HF1">
+        <v>100</v>
+      </c>
+      <c r="HG1">
+        <v>100</v>
+      </c>
+      <c r="HH1">
+        <v>100</v>
+      </c>
+      <c r="HI1">
+        <v>100</v>
+      </c>
+      <c r="HJ1">
+        <v>100</v>
+      </c>
+      <c r="HK1">
+        <v>100</v>
+      </c>
+      <c r="HL1">
+        <v>100</v>
+      </c>
+      <c r="HM1">
+        <v>100</v>
+      </c>
+      <c r="HN1">
+        <v>100</v>
+      </c>
+      <c r="HO1">
+        <v>100</v>
+      </c>
+      <c r="HP1">
+        <v>100</v>
+      </c>
+      <c r="HQ1">
+        <v>100</v>
+      </c>
+      <c r="HR1">
+        <v>100</v>
+      </c>
+      <c r="HS1">
+        <v>100</v>
+      </c>
+      <c r="HT1">
+        <v>100</v>
+      </c>
+      <c r="HU1">
+        <v>100</v>
+      </c>
+      <c r="HV1">
+        <v>100</v>
+      </c>
+      <c r="HW1">
+        <v>100</v>
+      </c>
+      <c r="HX1">
+        <v>100</v>
+      </c>
+      <c r="HY1">
+        <v>100</v>
+      </c>
+      <c r="HZ1">
+        <v>100</v>
+      </c>
+      <c r="IA1">
+        <v>100</v>
+      </c>
+      <c r="IB1">
+        <v>100</v>
+      </c>
+      <c r="IC1">
+        <v>100</v>
+      </c>
+      <c r="ID1">
+        <v>100</v>
+      </c>
+      <c r="IE1">
+        <v>100</v>
+      </c>
+      <c r="IF1">
+        <v>100</v>
+      </c>
+      <c r="IG1">
+        <v>100</v>
+      </c>
+      <c r="IH1">
+        <v>100</v>
+      </c>
+      <c r="II1">
+        <v>100</v>
+      </c>
+      <c r="IJ1">
+        <v>100</v>
+      </c>
+      <c r="IK1">
+        <v>100</v>
+      </c>
+      <c r="IL1">
+        <v>100</v>
+      </c>
+      <c r="IM1">
+        <v>100</v>
+      </c>
+      <c r="IN1">
+        <v>100</v>
+      </c>
+      <c r="IO1">
+        <v>100</v>
+      </c>
+      <c r="IP1">
+        <v>100</v>
+      </c>
+      <c r="IQ1">
+        <v>100</v>
+      </c>
+      <c r="IR1">
+        <v>100</v>
+      </c>
+      <c r="IS1">
+        <v>100</v>
+      </c>
+      <c r="IT1">
+        <v>100</v>
+      </c>
+      <c r="IU1">
+        <v>100</v>
+      </c>
+      <c r="IV1">
+        <v>100</v>
+      </c>
+      <c r="IW1">
+        <v>100</v>
+      </c>
+      <c r="IX1">
+        <v>100</v>
+      </c>
+      <c r="IY1">
+        <v>100</v>
+      </c>
+      <c r="IZ1">
+        <v>100</v>
+      </c>
+      <c r="JA1">
+        <v>100</v>
+      </c>
+      <c r="JB1">
+        <v>100</v>
+      </c>
+      <c r="JC1">
+        <v>100</v>
+      </c>
+      <c r="JD1">
+        <v>100</v>
+      </c>
+      <c r="JE1">
+        <v>100</v>
+      </c>
+      <c r="JF1">
+        <v>100</v>
+      </c>
+      <c r="JG1">
+        <v>100</v>
+      </c>
+      <c r="JH1">
+        <v>100</v>
+      </c>
+      <c r="JI1">
+        <v>100</v>
+      </c>
+      <c r="JJ1">
+        <v>100</v>
+      </c>
+      <c r="JK1">
+        <v>100</v>
+      </c>
+      <c r="JL1">
+        <v>100</v>
+      </c>
+      <c r="JM1">
+        <v>100</v>
+      </c>
+      <c r="JN1">
+        <v>100</v>
+      </c>
+      <c r="JO1">
+        <v>100</v>
+      </c>
+      <c r="JP1">
+        <v>100</v>
+      </c>
+      <c r="JQ1">
+        <v>100</v>
+      </c>
+      <c r="JR1">
+        <v>100</v>
+      </c>
+      <c r="JS1">
+        <v>100</v>
+      </c>
+      <c r="JT1">
+        <v>100</v>
+      </c>
+      <c r="JU1">
+        <v>100</v>
+      </c>
+      <c r="JV1">
+        <v>100</v>
+      </c>
+      <c r="JW1">
+        <v>100</v>
+      </c>
+      <c r="JX1">
+        <v>100</v>
+      </c>
+      <c r="JY1">
+        <v>100</v>
+      </c>
+      <c r="JZ1">
+        <v>100</v>
+      </c>
+      <c r="KA1">
+        <v>100</v>
+      </c>
+      <c r="KB1">
+        <v>100</v>
+      </c>
+      <c r="KC1">
+        <v>100</v>
+      </c>
+      <c r="KD1">
+        <v>100</v>
+      </c>
+      <c r="KE1">
+        <v>100</v>
+      </c>
+      <c r="KF1">
+        <v>100</v>
+      </c>
+      <c r="KG1">
+        <v>100</v>
+      </c>
+      <c r="KH1">
+        <v>100</v>
+      </c>
+      <c r="KI1">
+        <v>100</v>
+      </c>
+      <c r="KJ1">
+        <v>100</v>
+      </c>
+      <c r="KK1">
+        <v>100</v>
+      </c>
+      <c r="KL1">
+        <v>100</v>
+      </c>
+      <c r="KM1">
+        <v>100</v>
+      </c>
+      <c r="KN1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>35.736888738871798</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2">
+        <v>100</v>
+      </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <v>100</v>
+      </c>
+      <c r="AC2">
+        <v>100</v>
+      </c>
+      <c r="AD2">
+        <v>100</v>
+      </c>
+      <c r="AE2">
+        <v>100</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2">
+        <v>100</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2">
+        <v>100</v>
+      </c>
+      <c r="AJ2">
+        <v>100</v>
+      </c>
+      <c r="AK2">
+        <v>100</v>
+      </c>
+      <c r="AL2">
+        <v>100</v>
+      </c>
+      <c r="AM2">
+        <v>100</v>
+      </c>
+      <c r="AN2">
+        <v>100</v>
+      </c>
+      <c r="AO2">
+        <v>100</v>
+      </c>
+      <c r="AP2">
+        <v>100</v>
+      </c>
+      <c r="AQ2">
+        <v>100</v>
+      </c>
+      <c r="AR2">
+        <v>100</v>
+      </c>
+      <c r="AS2">
+        <v>100</v>
+      </c>
+      <c r="AT2">
+        <v>100</v>
+      </c>
+      <c r="AU2">
+        <v>100</v>
+      </c>
+      <c r="AV2">
+        <v>100</v>
+      </c>
+      <c r="AW2">
+        <v>100</v>
+      </c>
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="AY2">
+        <v>100</v>
+      </c>
+      <c r="AZ2">
+        <v>100</v>
+      </c>
+      <c r="BA2">
+        <v>100</v>
+      </c>
+      <c r="BB2">
+        <v>100</v>
+      </c>
+      <c r="BC2">
+        <v>100</v>
+      </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2">
+        <v>100</v>
+      </c>
+      <c r="BF2">
+        <v>100</v>
+      </c>
+      <c r="BG2">
+        <v>100</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2">
+        <v>100</v>
+      </c>
+      <c r="BJ2">
+        <v>100</v>
+      </c>
+      <c r="BK2">
+        <v>100</v>
+      </c>
+      <c r="BL2">
+        <v>100</v>
+      </c>
+      <c r="BM2">
+        <v>100</v>
+      </c>
+      <c r="BN2">
+        <v>100</v>
+      </c>
+      <c r="BO2">
+        <v>100</v>
+      </c>
+      <c r="BP2">
+        <v>100</v>
+      </c>
+      <c r="BQ2">
+        <v>100</v>
+      </c>
+      <c r="BR2">
+        <v>100</v>
+      </c>
+      <c r="BS2">
+        <v>100</v>
+      </c>
+      <c r="BT2">
+        <v>100</v>
+      </c>
+      <c r="BU2">
+        <v>100</v>
+      </c>
+      <c r="BV2">
+        <v>100</v>
+      </c>
+      <c r="BW2">
+        <v>100</v>
+      </c>
+      <c r="BX2">
+        <v>100</v>
+      </c>
+      <c r="BY2">
+        <v>100</v>
+      </c>
+      <c r="BZ2">
+        <v>100</v>
+      </c>
+      <c r="CA2">
+        <v>100</v>
+      </c>
+      <c r="CB2">
+        <v>100</v>
+      </c>
+      <c r="CC2">
+        <v>100</v>
+      </c>
+      <c r="CD2">
+        <v>100</v>
+      </c>
+      <c r="CE2">
+        <v>100</v>
+      </c>
+      <c r="CF2">
+        <v>100</v>
+      </c>
+      <c r="CG2">
+        <v>100</v>
+      </c>
+      <c r="CH2">
+        <v>100</v>
+      </c>
+      <c r="CI2">
+        <v>100</v>
+      </c>
+      <c r="CJ2">
+        <v>100</v>
+      </c>
+      <c r="CK2">
+        <v>100</v>
+      </c>
+      <c r="CL2">
+        <v>100</v>
+      </c>
+      <c r="CM2">
+        <v>100</v>
+      </c>
+      <c r="CN2">
+        <v>100</v>
+      </c>
+      <c r="CO2">
+        <v>100</v>
+      </c>
+      <c r="CP2">
+        <v>100</v>
+      </c>
+      <c r="CQ2">
+        <v>100</v>
+      </c>
+      <c r="CR2">
+        <v>100</v>
+      </c>
+      <c r="CS2">
+        <v>100</v>
+      </c>
+      <c r="CT2">
+        <v>100</v>
+      </c>
+      <c r="CU2">
+        <v>100</v>
+      </c>
+      <c r="CV2">
+        <v>100</v>
+      </c>
+      <c r="CW2">
+        <v>100</v>
+      </c>
+      <c r="CX2">
+        <v>100</v>
+      </c>
+      <c r="CY2">
+        <v>100</v>
+      </c>
+      <c r="CZ2">
+        <v>100</v>
+      </c>
+      <c r="DA2">
+        <v>100</v>
+      </c>
+      <c r="DB2">
+        <v>100</v>
+      </c>
+      <c r="DC2">
+        <v>100</v>
+      </c>
+      <c r="DD2">
+        <v>100</v>
+      </c>
+      <c r="DE2">
+        <v>100</v>
+      </c>
+      <c r="DF2">
+        <v>100</v>
+      </c>
+      <c r="DG2">
+        <v>100</v>
+      </c>
+      <c r="DH2">
+        <v>100</v>
+      </c>
+      <c r="DI2">
+        <v>100</v>
+      </c>
+      <c r="DJ2">
+        <v>100</v>
+      </c>
+      <c r="DK2">
+        <v>100</v>
+      </c>
+      <c r="DL2">
+        <v>100</v>
+      </c>
+      <c r="DM2">
+        <v>100</v>
+      </c>
+      <c r="DN2">
+        <v>100</v>
+      </c>
+      <c r="DO2">
+        <v>100</v>
+      </c>
+      <c r="DP2">
+        <v>100</v>
+      </c>
+      <c r="DQ2">
+        <v>100</v>
+      </c>
+      <c r="DR2">
+        <v>100</v>
+      </c>
+      <c r="DS2">
+        <v>100</v>
+      </c>
+      <c r="DT2">
+        <v>100</v>
+      </c>
+      <c r="DU2">
+        <v>100</v>
+      </c>
+      <c r="DV2">
+        <v>100</v>
+      </c>
+      <c r="DW2">
+        <v>100</v>
+      </c>
+      <c r="DX2">
+        <v>100</v>
+      </c>
+      <c r="DY2">
+        <v>100</v>
+      </c>
+      <c r="DZ2">
+        <v>100</v>
+      </c>
+      <c r="EA2">
+        <v>100</v>
+      </c>
+      <c r="EB2">
+        <v>100</v>
+      </c>
+      <c r="EC2">
+        <v>100</v>
+      </c>
+      <c r="ED2">
+        <v>100</v>
+      </c>
+      <c r="EE2">
+        <v>100</v>
+      </c>
+      <c r="EF2">
+        <v>100</v>
+      </c>
+      <c r="EG2">
+        <v>100</v>
+      </c>
+      <c r="EH2">
+        <v>100</v>
+      </c>
+      <c r="EI2">
+        <v>100</v>
+      </c>
+      <c r="EJ2">
+        <v>100</v>
+      </c>
+      <c r="EK2">
+        <v>100</v>
+      </c>
+      <c r="EL2">
+        <v>100</v>
+      </c>
+      <c r="EM2">
+        <v>100</v>
+      </c>
+      <c r="EN2">
+        <v>100</v>
+      </c>
+      <c r="EO2">
+        <v>100</v>
+      </c>
+      <c r="EP2">
+        <v>100</v>
+      </c>
+      <c r="EQ2">
+        <v>100</v>
+      </c>
+      <c r="ER2">
+        <v>100</v>
+      </c>
+      <c r="ES2">
+        <v>100</v>
+      </c>
+      <c r="ET2">
+        <v>100</v>
+      </c>
+      <c r="EU2">
+        <v>100</v>
+      </c>
+      <c r="EV2">
+        <v>100</v>
+      </c>
+      <c r="EW2">
+        <v>100</v>
+      </c>
+      <c r="EX2">
+        <v>100</v>
+      </c>
+      <c r="EY2">
+        <v>100</v>
+      </c>
+      <c r="EZ2">
+        <v>100</v>
+      </c>
+      <c r="FA2">
+        <v>100</v>
+      </c>
+      <c r="FB2">
+        <v>100</v>
+      </c>
+      <c r="FC2">
+        <v>100</v>
+      </c>
+      <c r="FD2">
+        <v>100</v>
+      </c>
+      <c r="FE2">
+        <v>100</v>
+      </c>
+      <c r="FF2">
+        <v>100</v>
+      </c>
+      <c r="FG2">
+        <v>100</v>
+      </c>
+      <c r="FH2">
+        <v>100</v>
+      </c>
+      <c r="FI2">
+        <v>100</v>
+      </c>
+      <c r="FJ2">
+        <v>100</v>
+      </c>
+      <c r="FK2">
+        <v>100</v>
+      </c>
+      <c r="FL2">
+        <v>100</v>
+      </c>
+      <c r="FM2">
+        <v>100</v>
+      </c>
+      <c r="FN2">
+        <v>100</v>
+      </c>
+      <c r="FO2">
+        <v>100</v>
+      </c>
+      <c r="FP2">
+        <v>100</v>
+      </c>
+      <c r="FQ2">
+        <v>100</v>
+      </c>
+      <c r="FR2">
+        <v>100</v>
+      </c>
+      <c r="FS2">
+        <v>100</v>
+      </c>
+      <c r="FT2">
+        <v>100</v>
+      </c>
+      <c r="FU2">
+        <v>100</v>
+      </c>
+      <c r="FV2">
+        <v>100</v>
+      </c>
+      <c r="FW2">
+        <v>100</v>
+      </c>
+      <c r="FX2">
+        <v>100</v>
+      </c>
+      <c r="FY2">
+        <v>100</v>
+      </c>
+      <c r="FZ2">
+        <v>100</v>
+      </c>
+      <c r="GA2">
+        <v>100</v>
+      </c>
+      <c r="GB2">
+        <v>100</v>
+      </c>
+      <c r="GC2">
+        <v>100</v>
+      </c>
+      <c r="GD2">
+        <v>100</v>
+      </c>
+      <c r="GE2">
+        <v>100</v>
+      </c>
+      <c r="GF2">
+        <v>100</v>
+      </c>
+      <c r="GG2">
+        <v>100</v>
+      </c>
+      <c r="GH2">
+        <v>100</v>
+      </c>
+      <c r="GI2">
+        <v>100</v>
+      </c>
+      <c r="GJ2">
+        <v>100</v>
+      </c>
+      <c r="GK2">
+        <v>100</v>
+      </c>
+      <c r="GL2">
+        <v>100</v>
+      </c>
+      <c r="GM2">
+        <v>100</v>
+      </c>
+      <c r="GN2">
+        <v>100</v>
+      </c>
+      <c r="GO2">
+        <v>100</v>
+      </c>
+      <c r="GP2">
+        <v>100</v>
+      </c>
+      <c r="GQ2">
+        <v>100</v>
+      </c>
+      <c r="GR2">
+        <v>100</v>
+      </c>
+      <c r="GS2">
+        <v>100</v>
+      </c>
+      <c r="GT2">
+        <v>100</v>
+      </c>
+      <c r="GU2">
+        <v>100</v>
+      </c>
+      <c r="GV2">
+        <v>100</v>
+      </c>
+      <c r="GW2">
+        <v>100</v>
+      </c>
+      <c r="GX2">
+        <v>100</v>
+      </c>
+      <c r="GY2">
+        <v>100</v>
+      </c>
+      <c r="GZ2">
+        <v>100</v>
+      </c>
+      <c r="HA2">
+        <v>100</v>
+      </c>
+      <c r="HB2">
+        <v>100</v>
+      </c>
+      <c r="HC2">
+        <v>100</v>
+      </c>
+      <c r="HD2">
+        <v>100</v>
+      </c>
+      <c r="HE2">
+        <v>100</v>
+      </c>
+      <c r="HF2">
+        <v>100</v>
+      </c>
+      <c r="HG2">
+        <v>100</v>
+      </c>
+      <c r="HH2">
+        <v>100</v>
+      </c>
+      <c r="HI2">
+        <v>100</v>
+      </c>
+      <c r="HJ2">
+        <v>100</v>
+      </c>
+      <c r="HK2">
+        <v>100</v>
+      </c>
+      <c r="HL2">
+        <v>100</v>
+      </c>
+      <c r="HM2">
+        <v>100</v>
+      </c>
+      <c r="HN2">
+        <v>100</v>
+      </c>
+      <c r="HO2">
+        <v>100</v>
+      </c>
+      <c r="HP2">
+        <v>100</v>
+      </c>
+      <c r="HQ2">
+        <v>100</v>
+      </c>
+      <c r="HR2">
+        <v>100</v>
+      </c>
+      <c r="HS2">
+        <v>100</v>
+      </c>
+      <c r="HT2">
+        <v>100</v>
+      </c>
+      <c r="HU2">
+        <v>100</v>
+      </c>
+      <c r="HV2">
+        <v>100</v>
+      </c>
+      <c r="HW2">
+        <v>100</v>
+      </c>
+      <c r="HX2">
+        <v>100</v>
+      </c>
+      <c r="HY2">
+        <v>100</v>
+      </c>
+      <c r="HZ2">
+        <v>100</v>
+      </c>
+      <c r="IA2">
+        <v>100</v>
+      </c>
+      <c r="IB2">
+        <v>100</v>
+      </c>
+      <c r="IC2">
+        <v>100</v>
+      </c>
+      <c r="ID2">
+        <v>100</v>
+      </c>
+      <c r="IE2">
+        <v>100</v>
+      </c>
+      <c r="IF2">
+        <v>100</v>
+      </c>
+      <c r="IG2">
+        <v>100</v>
+      </c>
+      <c r="IH2">
+        <v>100</v>
+      </c>
+      <c r="II2">
+        <v>100</v>
+      </c>
+      <c r="IJ2">
+        <v>100</v>
+      </c>
+      <c r="IK2">
+        <v>100</v>
+      </c>
+      <c r="IL2">
+        <v>100</v>
+      </c>
+      <c r="IM2">
+        <v>100</v>
+      </c>
+      <c r="IN2">
+        <v>100</v>
+      </c>
+      <c r="IO2">
+        <v>100</v>
+      </c>
+      <c r="IP2">
+        <v>100</v>
+      </c>
+      <c r="IQ2">
+        <v>100</v>
+      </c>
+      <c r="IR2">
+        <v>100</v>
+      </c>
+      <c r="IS2">
+        <v>100</v>
+      </c>
+      <c r="IT2">
+        <v>100</v>
+      </c>
+      <c r="IU2">
+        <v>100</v>
+      </c>
+      <c r="IV2">
+        <v>100</v>
+      </c>
+      <c r="IW2">
+        <v>100</v>
+      </c>
+      <c r="IX2">
+        <v>100</v>
+      </c>
+      <c r="IY2">
+        <v>100</v>
+      </c>
+      <c r="IZ2">
+        <v>100</v>
+      </c>
+      <c r="JA2">
+        <v>100</v>
+      </c>
+      <c r="JB2">
+        <v>100</v>
+      </c>
+      <c r="JC2">
+        <v>100</v>
+      </c>
+      <c r="JD2">
+        <v>100</v>
+      </c>
+      <c r="JE2">
+        <v>100</v>
+      </c>
+      <c r="JF2">
+        <v>100</v>
+      </c>
+      <c r="JG2">
+        <v>100</v>
+      </c>
+      <c r="JH2">
+        <v>100</v>
+      </c>
+      <c r="JI2">
+        <v>100</v>
+      </c>
+      <c r="JJ2">
+        <v>100</v>
+      </c>
+      <c r="JK2">
+        <v>100</v>
+      </c>
+      <c r="JL2">
+        <v>100</v>
+      </c>
+      <c r="JM2">
+        <v>100</v>
+      </c>
+      <c r="JN2">
+        <v>100</v>
+      </c>
+      <c r="JO2">
+        <v>100</v>
+      </c>
+      <c r="JP2">
+        <v>100</v>
+      </c>
+      <c r="JQ2">
+        <v>100</v>
+      </c>
+      <c r="JR2">
+        <v>100</v>
+      </c>
+      <c r="JS2">
+        <v>100</v>
+      </c>
+      <c r="JT2">
+        <v>100</v>
+      </c>
+      <c r="JU2">
+        <v>100</v>
+      </c>
+      <c r="JV2">
+        <v>100</v>
+      </c>
+      <c r="JW2">
+        <v>100</v>
+      </c>
+      <c r="JX2">
+        <v>100</v>
+      </c>
+      <c r="JY2">
+        <v>100</v>
+      </c>
+      <c r="JZ2">
+        <v>100</v>
+      </c>
+      <c r="KA2">
+        <v>100</v>
+      </c>
+      <c r="KB2">
+        <v>100</v>
+      </c>
+      <c r="KC2">
+        <v>100</v>
+      </c>
+      <c r="KD2">
+        <v>100</v>
+      </c>
+      <c r="KE2">
+        <v>100</v>
+      </c>
+      <c r="KF2">
+        <v>100</v>
+      </c>
+      <c r="KG2">
+        <v>100</v>
+      </c>
+      <c r="KH2">
+        <v>100</v>
+      </c>
+      <c r="KI2">
+        <v>100</v>
+      </c>
+      <c r="KJ2">
+        <v>100</v>
+      </c>
+      <c r="KK2">
+        <v>100</v>
+      </c>
+      <c r="KL2">
+        <v>100</v>
+      </c>
+      <c r="KM2">
+        <v>100</v>
+      </c>
+      <c r="KN2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>A2-A1</f>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>B2-B1</f>
+        <v>2.2565345420433971</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:BN4" si="0">C2-C1</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <f t="shared" ref="BO4:DZ4" si="1">BO2-BO1</f>
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <f t="shared" ref="EA4:GL4" si="2">EA2-EA1</f>
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM4">
+        <f t="shared" ref="GM4:IX4" si="3">GM2-GM1</f>
+        <v>0</v>
+      </c>
+      <c r="GN4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GO4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GP4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GR4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GS4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GU4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GV4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GW4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GX4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GY4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GZ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HC4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HD4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HE4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HF4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HG4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HH4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HI4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HK4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HL4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HM4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HN4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HO4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HP4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HQ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HS4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HT4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HU4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HV4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HW4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HX4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HY4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HZ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IA4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IB4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IC4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ID4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IE4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IF4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IG4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IH4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="II4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IJ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IK4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IL4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IM4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IN4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IO4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IP4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IQ4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IR4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IS4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IT4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IU4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IV4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IW4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IX4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IY4">
+        <f t="shared" ref="IY4:KN4" si="4">IY2-IY1</f>
+        <v>0</v>
+      </c>
+      <c r="IZ4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JA4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JB4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JC4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JD4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JE4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JF4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JG4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JH4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JI4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JJ4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JK4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JL4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JM4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JN4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JO4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JP4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JQ4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JR4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JS4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JT4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JU4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JV4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JW4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JX4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JY4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JZ4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KA4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KB4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KC4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KD4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KH4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KI4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KJ4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KK4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KL4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KM4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KN4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>AVERAGE(2:2)</f>
+        <v>99.785789629129582</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(4:4)</f>
+        <v>7.5217818068113234E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>